--- a/variabili_testo.xlsx
+++ b/variabili_testo.xlsx
@@ -8,7 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="testi" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="variabili" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="248">
   <si>
     <t xml:space="preserve">Fornitura</t>
   </si>
@@ -770,6 +771,201 @@
   <si>
     <t xml:space="preserve">{{numero_COAN}}</t>
   </si>
+  <si>
+    <t xml:space="preserve">PAD piattaforma che utilizzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PVC common procurement vocabulary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variabili</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{ data_scadenza}}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{{ servizio_fornitura}}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">{{clausola_cam}} </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{{ numero_CUP}}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">{{ indirizzo_OE_scelta}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{ legale_rap_OE_scelta}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{sede_OE_scelta}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{piva_OE_scelta}}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{{ codice_CNEL}}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">{{ estratti_CNEL}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {{nome_cognome_richiedente}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {{data_nascita_richiedente}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {{luogo_nascita_richiedente}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {{CF_richiedente}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{sede_richiedente}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {{ firma_richiedente}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {{ img_documento_richiedente}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{ dichiarazioni_comunicazione_incarichi_richiedente}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{ dichiarazioni_partecipazione_associazioni_organizzazioni_richiedente}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{mail_contatto_RUP}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{mail_contatto_direttore}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {{nome_cognome_RSS}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {{data_nascita_RSS}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {{luogo_nascita_RSS}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {{CF_RSS}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{sede_RSS}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {{ firma_RSS}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {{ img_documento_RSS}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{ dichiarazioni_comunicazione_incarichi_RSS}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{ dichiarazioni_partecipazione_associazioni_organizzazioni_RSS}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{mail_contatto_RSS}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{ulteriori _riferimenti_normativi_attuativi_operativi}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{prot_RDA}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{prot_richiesta_url}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{prot_nomina_RUP}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{protocollo_conflittoint_richiedente}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{protocollo_conflittoint_RUP}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{protocollo_conflittoint_direttore}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{protocollo_allegato2_CIG}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{protocollo_istruttoria_RUP}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{protocollo_DAC}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{protocollo_ordine}}</t>
+  </si>
 </sst>
 </file>
 
@@ -778,7 +974,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -851,6 +1047,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -927,7 +1130,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1005,6 +1208,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1191,10 +1410,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J171"/>
+  <dimension ref="A1:J184"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D134" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F142" activeCellId="0" sqref="F142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2534,7 +2753,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
       <c r="D138" s="12"/>
@@ -2860,6 +3079,19 @@
       </c>
       <c r="D171" s="6" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2871,4 +3103,576 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B97"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="63.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="63.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="33.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="43.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="63.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="46.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="30.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="35.24"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="12"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="12"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B35" s="18"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B36" s="12"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B37" s="12"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B38" s="12"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="B45" s="6"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="B46" s="6"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47" s="12"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="6"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="6"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="6"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="14"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="13"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="6"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="6"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="6"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="23"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" s="6"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="13"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="B59" s="6"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" s="6"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" s="6"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="6"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="6"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" s="6"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="12"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68" s="6"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="B69" s="6"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="20" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="20" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="20" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="18.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="21" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="21" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>